--- a/設計.xlsx
+++ b/設計.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\ドライブ\IT系\プログラミング\開発\画像テキスト読み取り\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\ドライブ\IT系\プログラミング\開発\Tokium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B286EEC-5B24-4170-A9EF-11AB63842E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C19EF32-82C7-46F2-86F1-0333BF52DFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4A233D95-A9D0-4A32-8FA8-D9641071CE7C}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4A233D95-A9D0-4A32-8FA8-D9641071CE7C}"/>
   </bookViews>
   <sheets>
     <sheet name="領収書" sheetId="1" r:id="rId1"/>
+    <sheet name="スクリーンショットの保存機能" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>電話番号</t>
     <rPh sb="0" eb="4">
@@ -457,6 +458,45 @@
   </si>
   <si>
     <t>C:¥¥アルバイト\TOKIUM\receipt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYYYMMDDhhmmss.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>visual studioを使って保存する。</t>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リセットではなく、コード生成としたい。</t>
+    <rPh sb="12" eb="14">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽油</t>
+    <rPh sb="0" eb="2">
+      <t>ケイユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10%8%非課税</t>
+    <rPh sb="5" eb="8">
+      <t>ヒカゼイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -635,20 +675,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -656,11 +687,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,13 +927,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -974,13 +1014,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1037,13 +1077,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1100,13 +1140,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1192,13 +1232,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1260,13 +1300,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1323,13 +1363,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1386,13 +1426,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1447,132 +1487,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="四角形: 角を丸くする 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670A0A31-B98F-4785-A4BF-8087597A84B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3886200" y="9696450"/>
-          <a:ext cx="2286000" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>プログラムを終了</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="フローチャート: 判断 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68F4C33-E333-543E-2B89-FAC92BB79FB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="547687" y="9677400"/>
-          <a:ext cx="2352675" cy="981075"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ファイルがない</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -1676,115 +1590,12 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線コネクタ 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{673084D1-5D0E-BEE8-6997-F648B7D07730}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1724024" y="9220200"/>
-          <a:ext cx="1" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>233363</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線コネクタ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B22F461-1557-B430-8608-668AC8F061CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="3"/>
-          <a:endCxn id="13" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2900362" y="10167938"/>
-          <a:ext cx="985838" cy="4762"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1797,7 +1608,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="2"/>
+          <a:cxnSpLocks/>
           <a:endCxn id="5" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -1831,13 +1642,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1881,13 +1692,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1931,13 +1742,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1984,13 +1795,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2034,13 +1845,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2084,13 +1895,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2134,13 +1945,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2187,13 +1998,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>33336</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2239,13 +2050,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2302,13 +2113,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2373,13 +2184,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2400,6 +2211,171 @@
         <a:xfrm flipH="1">
           <a:off x="1724024" y="15887700"/>
           <a:ext cx="1" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>96316</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>67316</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D602EF9-1559-E992-4989-0F9CE6F68645}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="476250"/>
+          <a:ext cx="7640116" cy="4591691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EB9B25C-2AA5-CF40-247D-3F4BF0C3BD13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495550" y="3762375"/>
+          <a:ext cx="1362075" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669CF4B4-A1FE-7AB4-ACF2-9C1A3C505FA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3133725" y="4410075"/>
+          <a:ext cx="9525" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2722,10 +2698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F45A77-C67F-45C4-B194-74914F178A6D}">
-  <dimension ref="A1:BA111"/>
+  <dimension ref="A1:BA107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2788,748 +2764,748 @@
       <c r="BA1" s="3"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="12" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="11" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="7" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="7"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
     </row>
     <row r="4" spans="1:53" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="11" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="10" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="6" t="s">
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.4">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="11" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="10" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="7" t="s">
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="11" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="10" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="7" t="s">
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="7" t="s">
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
     </row>
     <row r="8" spans="1:53" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="6" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="7"/>
-      <c r="AT8" s="7"/>
-      <c r="AU8" s="7"/>
-      <c r="AV8" s="7"/>
-      <c r="AW8" s="7"/>
-      <c r="AX8" s="7"/>
-      <c r="AY8" s="7"/>
-      <c r="AZ8" s="7"/>
-      <c r="BA8" s="7"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
     </row>
     <row r="9" spans="1:53" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="11" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="6" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="7"/>
-      <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
     </row>
     <row r="10" spans="1:53" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="11" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="7" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7"/>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.4">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="11" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="7" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="14"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.4">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="11" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="7" t="s">
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="14"/>
     </row>
     <row r="13" spans="1:53" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="11" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="9" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="6" t="s">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
-      <c r="AS13" s="7"/>
-      <c r="AT13" s="7"/>
-      <c r="AU13" s="7"/>
-      <c r="AV13" s="7"/>
-      <c r="AW13" s="7"/>
-      <c r="AX13" s="7"/>
-      <c r="AY13" s="7"/>
-      <c r="AZ13" s="7"/>
-      <c r="BA13" s="7"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="14"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
@@ -3539,182 +3515,164 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="17:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" spans="17:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" spans="17:17" x14ac:dyDescent="0.4">
-      <c r="Q62" t="s">
+    <row r="53" spans="17:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="17:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q56" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="17:17" x14ac:dyDescent="0.4">
-      <c r="Q63" t="s">
+    <row r="57" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="17:17" x14ac:dyDescent="0.4">
-      <c r="Q64" t="s">
+    <row r="58" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" s="5" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B87" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B94" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B88" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B95" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B89" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B96" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B90" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B91" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B92" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B93" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C94" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B95" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C96" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B97" t="s">
-        <v>45</v>
+      <c r="B97" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B98" t="s">
-        <v>38</v>
+      <c r="C98" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B99" s="5" t="s">
+      <c r="A99" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C99" t="s">
-        <v>39</v>
-      </c>
+      <c r="B99" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="5"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C100" s="5" t="s">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D100" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B101" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C101" t="s">
-        <v>41</v>
+      <c r="C100" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C102" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D102" t="s">
-        <v>42</v>
+      <c r="A102" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B103" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C103" t="s">
-        <v>43</v>
+      <c r="A103" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C104" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D104" t="s">
-        <v>44</v>
+      <c r="A104" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K2:Z2"/>
-    <mergeCell ref="K3:Z3"/>
-    <mergeCell ref="K4:Z4"/>
-    <mergeCell ref="K5:Z5"/>
-    <mergeCell ref="K6:Z6"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K13:Z13"/>
-    <mergeCell ref="K7:Z7"/>
-    <mergeCell ref="K8:Z8"/>
-    <mergeCell ref="K9:Z9"/>
-    <mergeCell ref="K10:Z10"/>
-    <mergeCell ref="K11:Z11"/>
-    <mergeCell ref="K12:Z12"/>
     <mergeCell ref="AA13:BA13"/>
     <mergeCell ref="AA2:BA2"/>
     <mergeCell ref="AA3:BA3"/>
@@ -3727,9 +3685,82 @@
     <mergeCell ref="AA10:BA10"/>
     <mergeCell ref="AA11:BA11"/>
     <mergeCell ref="AA12:BA12"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:Z13"/>
+    <mergeCell ref="K7:Z7"/>
+    <mergeCell ref="K8:Z8"/>
+    <mergeCell ref="K9:Z9"/>
+    <mergeCell ref="K10:Z10"/>
+    <mergeCell ref="K11:Z11"/>
+    <mergeCell ref="K12:Z12"/>
+    <mergeCell ref="K2:Z2"/>
+    <mergeCell ref="K3:Z3"/>
+    <mergeCell ref="K4:Z4"/>
+    <mergeCell ref="K5:Z5"/>
+    <mergeCell ref="K6:Z6"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8F7B26-D6A3-477E-88D9-92A03DC6E9C3}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>